--- a/InputFormat.xlsx
+++ b/InputFormat.xlsx
@@ -442,7 +442,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
